--- a/data/presupuesto_inicial.xlsx
+++ b/data/presupuesto_inicial.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B86F315-7EA7-47E4-B234-ECEC590B505D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce3gk\OneDrive\Escritorio\opti\proyecto\ics1113_proyecto_grupo03\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A1A32-1A2B-49E4-85F0-2DBED57A090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beta" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,24 +411,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f>2000*10^6</f>
-        <v>2000000000</v>
+        <f>200*10^6</f>
+        <v>200000000</v>
       </c>
     </row>
   </sheetData>
